--- a/web/BR_1666666_work_estimate_2019-02-19.xlsx
+++ b/web/BR_1666666_work_estimate_2019-02-19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Оценка трудозатрат по BR-1666666  "Тестовая BR"</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Результат:Версия подготовлена и протестирована</t>
+  </si>
+  <si>
+    <t>Результат:новый узел</t>
   </si>
   <si>
     <t>Итого</t>
@@ -517,10 +520,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B72" sqref="B72:C82"/>
+      <selection activeCell="B76" sqref="B76:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -606,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>190</v>
+        <v>190.38</v>
       </c>
       <c r="F9" s="5">
         <v>805</v>
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>995</v>
+        <v>995.38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -983,7 +986,9 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -997,121 +1002,135 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>258</v>
-      </c>
-      <c r="F24" s="1">
-        <v>875.7</v>
-      </c>
-      <c r="G24" s="1">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1">
-        <v>6</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>1159.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>115.97</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E26" s="2">
-        <v>258</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" s="1">
+        <v>258.38</v>
+      </c>
+      <c r="F26" s="1">
         <v>875.7</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>11</v>
       </c>
-      <c r="H26" s="2">
-        <v>121.97</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>1275.67</v>
+        <v>1160.08</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>116.01</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="B28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>258.38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>875.7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <v>122.01</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1276.08</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1123,12 +1142,8 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1141,10 +1156,10 @@
     <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
         <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>258</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1158,10 +1173,10 @@
     <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>875.7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1175,10 +1190,10 @@
     <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>11</v>
+        <v>258.38</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1192,10 +1207,10 @@
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>121.97</v>
+        <v>875.7</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1209,10 +1224,10 @@
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1226,10 +1241,10 @@
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>122.01</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1242,8 +1257,12 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1255,8 +1274,12 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1268,12 +1291,8 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1"/>
-      <c r="B39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1275.67</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1298,11 +1317,11 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1">
-        <v>267</v>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1276.08</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1315,12 +1334,8 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="1">
-        <v>11</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1333,10 +1348,10 @@
     <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1">
-        <v>876</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1350,10 +1365,10 @@
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1366,8 +1381,12 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>876</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1379,8 +1398,12 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1">
+        <v>122</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1392,12 +1415,8 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1276</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1421,11 +1440,13 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1276</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1435,38 +1456,22 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" customHeight="1" ht="40">
+    <row r="50" spans="1:11">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1479,103 +1484,99 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" customHeight="1" ht="40">
       <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1"/>
+      <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5">
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>7.38</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
         <v>805</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
         <v>90</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J54" s="5">
         <v>93</v>
       </c>
-      <c r="K52" s="2">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>65</v>
-      </c>
-      <c r="E53" s="5">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
-        <v>6</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="2">
+        <v>995.38</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D55" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E55" s="5">
         <v>0</v>
       </c>
       <c r="F55" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
@@ -1590,55 +1591,37 @@
         <v>0</v>
       </c>
       <c r="K55" s="2">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
-      <c r="B56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="5">
-        <v>7</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
-        <v>2</v>
-      </c>
-      <c r="K56" s="2">
-        <v>9</v>
-      </c>
+      <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1"/>
       <c r="B57" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D57" s="5">
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
@@ -1647,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I57" s="5">
         <v>0</v>
@@ -1656,37 +1639,55 @@
         <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>7</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2</v>
+      </c>
+      <c r="K58" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59" s="5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D59" s="5">
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
@@ -1695,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I59" s="5">
         <v>0</v>
@@ -1704,49 +1705,31 @@
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="5">
-        <v>5</v>
-      </c>
-      <c r="D60" s="5">
-        <v>0</v>
-      </c>
-      <c r="E60" s="5">
-        <v>0</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>5</v>
-      </c>
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1"/>
       <c r="B61" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C61" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D61" s="5">
         <v>0</v>
@@ -1755,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
@@ -1770,31 +1753,49 @@
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>0.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="5">
+        <v>5</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1"/>
       <c r="B63" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
@@ -1803,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="5">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G63" s="5">
         <v>0</v>
@@ -1818,12 +1819,12 @@
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1838,9 +1839,11 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C65" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D65" s="5">
         <v>0</v>
@@ -1864,11 +1867,13 @@
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1882,164 +1887,254 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1"/>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="1">
-        <v>74</v>
-      </c>
-      <c r="D67" s="1">
-        <v>72</v>
-      </c>
-      <c r="E67" s="1">
-        <v>11</v>
-      </c>
-      <c r="F67" s="1">
-        <v>811.7</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0</v>
-      </c>
-      <c r="H67" s="1">
-        <v>6</v>
-      </c>
-      <c r="I67" s="1">
-        <v>90</v>
-      </c>
-      <c r="J67" s="1">
-        <v>95</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1159.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1">
-        <v>115.97</v>
-      </c>
+      <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1"/>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1">
+        <v>72.38</v>
+      </c>
+      <c r="E71" s="1">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1">
+        <v>811.7</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>6</v>
+      </c>
+      <c r="I71" s="1">
+        <v>90</v>
+      </c>
+      <c r="J71" s="1">
+        <v>95</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1160.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1"/>
+      <c r="B72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1">
+        <v>116.01</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1"/>
+      <c r="B73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2">
         <v>74</v>
       </c>
-      <c r="D69" s="2">
-        <v>72</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D73" s="2">
+        <v>72.38</v>
+      </c>
+      <c r="E73" s="2">
         <v>11</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F73" s="2">
         <v>811.7</v>
       </c>
-      <c r="G69" s="2">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>121.97</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>122.01</v>
+      </c>
+      <c r="I73" s="2">
         <v>90</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J73" s="2">
         <v>95</v>
       </c>
-      <c r="K69" s="2">
-        <v>1275.67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="B72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="B73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="B74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C74" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="B75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="1">
-        <v>812</v>
+      <c r="K73" s="2">
+        <v>1276.08</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="B77" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C77" s="1">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="B79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="B82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C82" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="B83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="B82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="2">
+    <row r="84" spans="1:11">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="2">
         <v>1276</v>
       </c>
     </row>
@@ -2051,11 +2146,13 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
